--- a/data/trans_bre/BARTHEL_R3-Clase-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R3-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>10.33990602155312</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.624495997167084</v>
+        <v>5.62449599716709</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8782126916725165</v>
@@ -649,7 +649,7 @@
         <v>0.8440203205359996</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4469398023942825</v>
+        <v>0.446939802394283</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.692874682135057</v>
+        <v>-5.34678282120035</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.54593230948</v>
+        <v>-15.80173266785339</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.777882949641568</v>
+        <v>-6.664216802483466</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.002474704826324</v>
+        <v>-2.771358993634609</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7239025502230271</v>
-      </c>
-      <c r="H5" s="6" t="inlineStr"/>
+        <v>-0.7146802236965648</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4203103261710555</v>
+        <v>-0.412023740293219</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2296048572164556</v>
+        <v>-0.1923883261137392</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>22.82276426185524</v>
+        <v>24.51565142705647</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20.29437796468982</v>
+        <v>22.48259105356298</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30.26361453905949</v>
+        <v>27.27381887562012</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.73565397163535</v>
+        <v>14.76652938839638</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7.865655507970968</v>
-      </c>
-      <c r="H6" s="6" t="inlineStr"/>
+        <v>8.576406761586039</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>4.98862762870209</v>
+      </c>
       <c r="I6" s="6" t="n">
-        <v>5.358018137449517</v>
+        <v>3.922475993725091</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.577394615042636</v>
+        <v>1.525869401740187</v>
       </c>
     </row>
     <row r="7">
@@ -756,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-8.163287224705675</v>
+        <v>-8.628563135365811</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.118641813817192</v>
+        <v>-3.153696291719372</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.708898287521059</v>
+        <v>2.109467655259666</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.661198318446035</v>
+        <v>1.452755348248207</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3050486863462706</v>
+        <v>-0.3111247992467338</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1307358740277839</v>
+        <v>0.030684627831686</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1351634432282814</v>
+        <v>0.05075419020564974</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>37.14820138449706</v>
+        <v>38.77369293875035</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>46.80775807582641</v>
+        <v>46.61561682144866</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>60.26549368082094</v>
+        <v>60.77734122066181</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>25.10091210781938</v>
+        <v>24.02822221403913</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>7.193127631894996</v>
+        <v>8.33752748636117</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>6.865924393984534</v>
+        <v>7.986252882137477</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>6.280891469549972</v>
+        <v>6.578863722057487</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.359782825341349</v>
+        <v>2.246678776202513</v>
       </c>
     </row>
     <row r="10">
@@ -856,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.066839483889932</v>
+        <v>-8.319369555336671</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2543856551105308</v>
+        <v>1.042225716318977</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.44043789698131</v>
+        <v>-1.212918900770597</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.639786281288957</v>
+        <v>7.759262626907837</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6323716001461961</v>
+        <v>-0.6303327812016364</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.0299546698706753</v>
+        <v>-0.001200707187871071</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1974057133775048</v>
+        <v>-0.2029185214900363</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2540325867577925</v>
+        <v>0.2618017894530972</v>
       </c>
     </row>
     <row r="12">
@@ -888,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>28.9536891886994</v>
+        <v>26.88031101405375</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>28.42407988476792</v>
+        <v>29.2939086582594</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28.54260166520387</v>
+        <v>28.70429570976235</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30.76711314757408</v>
+        <v>30.65590459430406</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.740362954872389</v>
+        <v>3.76108769383626</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.541780986479275</v>
+        <v>3.707505115431639</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.072563099943058</v>
+        <v>3.135485473625388</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.772351389482763</v>
+        <v>1.745641359460455</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +937,7 @@
         <v>9.706376407210987</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.699016837936027</v>
+        <v>4.699016837936032</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08214051691039653</v>
@@ -945,7 +949,7 @@
         <v>0.5650900848903206</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1916456287822398</v>
+        <v>0.1916456287822401</v>
       </c>
     </row>
     <row r="14">
@@ -956,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.4603960076528</v>
+        <v>-6.664135243713801</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.565905296981717</v>
+        <v>-3.928168847651358</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.6640492852412306</v>
+        <v>-0.5680085127017329</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.840694367800254</v>
+        <v>-1.753807057353294</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3996400375013687</v>
+        <v>-0.4267946668446918</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1268374495351669</v>
+        <v>-0.1431988879899134</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07098628359542343</v>
+        <v>-0.04455507303903079</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0985251386284145</v>
+        <v>-0.06468530572484614</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.44681987292681</v>
+        <v>12.29919693897697</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.81620853472231</v>
+        <v>24.43799824708733</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21.28397975325924</v>
+        <v>22.13928988139234</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.70665418703688</v>
+        <v>11.47584910754059</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9276180521778578</v>
+        <v>1.064377081212362</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.109647190082713</v>
+        <v>1.174932543561753</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.399128015129344</v>
+        <v>1.470969877799976</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5527302085545458</v>
+        <v>0.5248994026614738</v>
       </c>
     </row>
     <row r="16">
@@ -1045,7 +1049,7 @@
         <v>0.2726507695308134</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.8019816848828767</v>
+        <v>0.8019816848828761</v>
       </c>
     </row>
     <row r="17">
@@ -1056,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.466769310869017</v>
+        <v>-7.208806667154012</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.296764338363644</v>
+        <v>7.46828352823057</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.968619470384863</v>
+        <v>-2.490247814972961</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12.0577359962551</v>
+        <v>12.21538735237706</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2443879554968678</v>
+        <v>-0.2693205138255335</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2514837463205117</v>
+        <v>0.2557869007837281</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1453996892032447</v>
+        <v>-0.108600450856923</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3675738200137434</v>
+        <v>0.3872772317870018</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>20.01384648027024</v>
+        <v>22.28765669993015</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>28.38607100168438</v>
+        <v>28.03013662685802</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.23147801120219</v>
+        <v>16.37684554162382</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>29.04327672895002</v>
+        <v>28.76247762518977</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.642302192728652</v>
+        <v>1.767925065566973</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.944412502949731</v>
+        <v>1.934177295006283</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.88961792515511</v>
+        <v>0.9309999162871845</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.485513155458277</v>
+        <v>1.469171181482358</v>
       </c>
     </row>
     <row r="19">
@@ -1156,20 +1160,20 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>16.80176966636142</v>
+        <v>16.52337098686522</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>24.83883054170479</v>
+        <v>25.12681160280454</v>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>-59.43891143599177</v>
+        <v>-60.08329166322629</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.5960385654408187</v>
+        <v>-0.6052371713709958</v>
       </c>
     </row>
     <row r="21">
@@ -1180,20 +1184,20 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.68661949997196</v>
+        <v>24.66966049678641</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>34.09372714000952</v>
+        <v>34.12116876955177</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>24.74897532358352</v>
+        <v>15.52412906477297</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>1.578017489498711</v>
+        <v>0.3445960632445192</v>
       </c>
     </row>
     <row r="22">
@@ -1229,7 +1233,7 @@
         <v>0.8032347186217828</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.7845347252454667</v>
+        <v>0.7845347252454665</v>
       </c>
     </row>
     <row r="23">
@@ -1240,28 +1244,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.256781353286863</v>
+        <v>2.745828119192927</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.412440721002159</v>
+        <v>7.841175610647309</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.875550850700579</v>
+        <v>8.836178189867654</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13.0779504808532</v>
+        <v>13.03050966689581</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1297724316804488</v>
+        <v>0.1674277233650588</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3361959434203922</v>
+        <v>0.3706230059217642</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4695826151351037</v>
+        <v>0.4625617277108831</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.5659111213304011</v>
+        <v>0.5630224952949687</v>
       </c>
     </row>
     <row r="24">
@@ -1272,28 +1276,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.94519647892897</v>
+        <v>11.55513714720456</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.62275962655771</v>
+        <v>17.76261725489047</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18.56813151010761</v>
+        <v>18.20133711790007</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20.01961769852021</v>
+        <v>19.73363313384783</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9628355672650259</v>
+        <v>1.046888225878072</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.104022934671997</v>
+        <v>1.145867418515179</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.274458141755773</v>
+        <v>1.244668483028721</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.080923847576604</v>
+        <v>1.033417671895602</v>
       </c>
     </row>
     <row r="25">
